--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori5/67/word_level_predictions_67.xlsx
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G57" s="2" t="b">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Missed_B-NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori5/67/word_level_predictions_67.xlsx
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G57" s="2" t="b">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Missed_B-NonEvent</t>
         </is>
       </c>
     </row>
